--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ptprc-Mrc1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ptprc-Mrc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Mrc1</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>sCs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.510770739254903</v>
+        <v>1.10502</v>
       </c>
       <c r="H2">
-        <v>0.510770739254903</v>
+        <v>2.21004</v>
       </c>
       <c r="I2">
-        <v>0.0009504536902291754</v>
+        <v>0.001923002024630407</v>
       </c>
       <c r="J2">
-        <v>0.0009504536902291754</v>
+        <v>0.00128282364057296</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.222083570725076</v>
+        <v>0.3561815</v>
       </c>
       <c r="N2">
-        <v>0.222083570725076</v>
+        <v>0.7123630000000001</v>
       </c>
       <c r="O2">
-        <v>0.000679188215939704</v>
+        <v>0.001061019652074698</v>
       </c>
       <c r="P2">
-        <v>0.000679188215939704</v>
+        <v>0.0007078316563895001</v>
       </c>
       <c r="Q2">
-        <v>0.1134337895956156</v>
+        <v>0.3935876811300001</v>
       </c>
       <c r="R2">
-        <v>0.1134337895956156</v>
+        <v>1.57435072452</v>
       </c>
       <c r="S2">
-        <v>6.455369462000618E-07</v>
+        <v>2.040342939112295E-06</v>
       </c>
       <c r="T2">
-        <v>6.455369462000618E-07</v>
+        <v>9.080231823623669E-07</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.510770739254903</v>
+        <v>1.10502</v>
       </c>
       <c r="H3">
-        <v>0.510770739254903</v>
+        <v>2.21004</v>
       </c>
       <c r="I3">
-        <v>0.0009504536902291754</v>
+        <v>0.001923002024630407</v>
       </c>
       <c r="J3">
-        <v>0.0009504536902291754</v>
+        <v>0.00128282364057296</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.08061147012914049</v>
+        <v>0.086544</v>
       </c>
       <c r="N3">
-        <v>0.08061147012914049</v>
+        <v>0.259632</v>
       </c>
       <c r="O3">
-        <v>0.000246530440781974</v>
+        <v>0.0002578036331734036</v>
       </c>
       <c r="P3">
-        <v>0.000246530440781974</v>
+        <v>0.0002579804799122339</v>
       </c>
       <c r="Q3">
-        <v>0.04117398019028562</v>
+        <v>0.09563285088000001</v>
       </c>
       <c r="R3">
-        <v>0.04117398019028562</v>
+        <v>0.5737971052800001</v>
       </c>
       <c r="S3">
-        <v>2.343157671950524E-07</v>
+        <v>4.957569085495299E-07</v>
       </c>
       <c r="T3">
-        <v>2.343157671950524E-07</v>
+        <v>3.309434584377712E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.510770739254903</v>
+        <v>1.10502</v>
       </c>
       <c r="H4">
-        <v>0.510770739254903</v>
+        <v>2.21004</v>
       </c>
       <c r="I4">
-        <v>0.0009504536902291754</v>
+        <v>0.001923002024630407</v>
       </c>
       <c r="J4">
-        <v>0.0009504536902291754</v>
+        <v>0.00128282364057296</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>170.634309362503</v>
+        <v>174.5669863333333</v>
       </c>
       <c r="N4">
-        <v>170.634309362503</v>
+        <v>523.700959</v>
       </c>
       <c r="O4">
-        <v>0.5218432492581325</v>
+        <v>0.5200129796273021</v>
       </c>
       <c r="P4">
-        <v>0.5218432492581325</v>
+        <v>0.5203696953122771</v>
       </c>
       <c r="Q4">
-        <v>87.15501233533547</v>
+        <v>192.90001123806</v>
       </c>
       <c r="R4">
-        <v>87.15501233533547</v>
+        <v>1157.40006742836</v>
       </c>
       <c r="S4">
-        <v>0.0004959878419785754</v>
+        <v>0.0009999860126573927</v>
       </c>
       <c r="T4">
-        <v>0.0004959878419785754</v>
+        <v>0.0006675425469843372</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.510770739254903</v>
+        <v>1.10502</v>
       </c>
       <c r="H5">
-        <v>0.510770739254903</v>
+        <v>2.21004</v>
       </c>
       <c r="I5">
-        <v>0.0009504536902291754</v>
+        <v>0.001923002024630407</v>
       </c>
       <c r="J5">
-        <v>0.0009504536902291754</v>
+        <v>0.00128282364057296</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>155.715100751252</v>
+        <v>159.4829636666667</v>
       </c>
       <c r="N5">
-        <v>155.715100751252</v>
+        <v>478.448891</v>
       </c>
       <c r="O5">
-        <v>0.4762165032236331</v>
+        <v>0.4750795833625507</v>
       </c>
       <c r="P5">
-        <v>0.4762165032236331</v>
+        <v>0.4754054758799227</v>
       </c>
       <c r="Q5">
-        <v>79.53471712386869</v>
+        <v>176.23186451094</v>
       </c>
       <c r="R5">
-        <v>79.53471712386869</v>
+        <v>1057.39118706564</v>
       </c>
       <c r="S5">
-        <v>0.0004526217328369361</v>
+        <v>0.0009135790006667555</v>
       </c>
       <c r="T5">
-        <v>0.0004526217328369361</v>
+        <v>0.0006098613833166029</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.510770739254903</v>
+        <v>1.10502</v>
       </c>
       <c r="H6">
-        <v>0.510770739254903</v>
+        <v>2.21004</v>
       </c>
       <c r="I6">
-        <v>0.0009504536902291754</v>
+        <v>0.001923002024630407</v>
       </c>
       <c r="J6">
-        <v>0.0009504536902291754</v>
+        <v>0.00128282364057296</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.331734542621054</v>
+        <v>0.8705036666666667</v>
       </c>
       <c r="N6">
-        <v>0.331734542621054</v>
+        <v>2.611511</v>
       </c>
       <c r="O6">
-        <v>0.001014528861512614</v>
+        <v>0.002593120354472131</v>
       </c>
       <c r="P6">
-        <v>0.001014528861512614</v>
+        <v>0.002594899169116587</v>
       </c>
       <c r="Q6">
-        <v>0.1694402975709429</v>
+        <v>0.9619239617400001</v>
       </c>
       <c r="R6">
-        <v>0.1694402975709429</v>
+        <v>5.771543770440001</v>
       </c>
       <c r="S6">
-        <v>9.642627002686677E-07</v>
+        <v>4.986575691760228E-06</v>
       </c>
       <c r="T6">
-        <v>9.642627002686677E-07</v>
+        <v>3.32879799904589E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>201.725524389746</v>
+        <v>1.10502</v>
       </c>
       <c r="H7">
-        <v>201.725524389746</v>
+        <v>2.21004</v>
       </c>
       <c r="I7">
-        <v>0.3753753970897798</v>
+        <v>0.001923002024630407</v>
       </c>
       <c r="J7">
-        <v>0.3753753970897798</v>
+        <v>0.00128282364057296</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.222083570725076</v>
+        <v>0.3341845</v>
       </c>
       <c r="N7">
-        <v>0.222083570725076</v>
+        <v>0.668369</v>
       </c>
       <c r="O7">
-        <v>0.000679188215939704</v>
+        <v>0.0009954933704270348</v>
       </c>
       <c r="P7">
-        <v>0.000679188215939704</v>
+        <v>0.0006641175023820632</v>
       </c>
       <c r="Q7">
-        <v>44.7999247628632</v>
+        <v>0.3692805561900001</v>
       </c>
       <c r="R7">
-        <v>44.7999247628632</v>
+        <v>1.47712222476</v>
       </c>
       <c r="S7">
-        <v>0.0002549505462570656</v>
+        <v>1.914335766837336E-06</v>
       </c>
       <c r="T7">
-        <v>0.0002549505462570656</v>
+        <v>8.519456321739797E-07</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>201.725524389746</v>
+        <v>0.005387666666666666</v>
       </c>
       <c r="H8">
-        <v>201.725524389746</v>
+        <v>0.016163</v>
       </c>
       <c r="I8">
-        <v>0.3753753970897798</v>
+        <v>9.37584288794208E-06</v>
       </c>
       <c r="J8">
-        <v>0.3753753970897798</v>
+        <v>9.381856664395554E-06</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.08061147012914049</v>
+        <v>0.3561815</v>
       </c>
       <c r="N8">
-        <v>0.08061147012914049</v>
+        <v>0.7123630000000001</v>
       </c>
       <c r="O8">
-        <v>0.000246530440781974</v>
+        <v>0.001061019652074698</v>
       </c>
       <c r="P8">
-        <v>0.000246530440781974</v>
+        <v>0.0007078316563895001</v>
       </c>
       <c r="Q8">
-        <v>16.26139108362921</v>
+        <v>0.001918987194833334</v>
       </c>
       <c r="R8">
-        <v>16.26139108362921</v>
+        <v>0.011513923169</v>
       </c>
       <c r="S8">
-        <v>9.254146210325194E-05</v>
+        <v>9.947953558871338E-09</v>
       </c>
       <c r="T8">
-        <v>9.254146210325194E-05</v>
+        <v>6.640775142767976E-09</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -974,49 +974,49 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>201.725524389746</v>
+        <v>0.005387666666666666</v>
       </c>
       <c r="H9">
-        <v>201.725524389746</v>
+        <v>0.016163</v>
       </c>
       <c r="I9">
-        <v>0.3753753970897798</v>
+        <v>9.37584288794208E-06</v>
       </c>
       <c r="J9">
-        <v>0.3753753970897798</v>
+        <v>9.381856664395554E-06</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>170.634309362503</v>
+        <v>0.086544</v>
       </c>
       <c r="N9">
-        <v>170.634309362503</v>
+        <v>0.259632</v>
       </c>
       <c r="O9">
-        <v>0.5218432492581325</v>
+        <v>0.0002578036331734036</v>
       </c>
       <c r="P9">
-        <v>0.5218432492581325</v>
+        <v>0.0002579804799122339</v>
       </c>
       <c r="Q9">
-        <v>34421.29553503306</v>
+        <v>0.0004662702239999999</v>
       </c>
       <c r="R9">
-        <v>34421.29553503306</v>
+        <v>0.004196432016</v>
       </c>
       <c r="S9">
-        <v>0.1958871169088925</v>
+        <v>2.417126360574485E-09</v>
       </c>
       <c r="T9">
-        <v>0.1958871169088925</v>
+        <v>2.420335884748555E-09</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1036,49 +1036,49 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>201.725524389746</v>
+        <v>0.005387666666666666</v>
       </c>
       <c r="H10">
-        <v>201.725524389746</v>
+        <v>0.016163</v>
       </c>
       <c r="I10">
-        <v>0.3753753970897798</v>
+        <v>9.37584288794208E-06</v>
       </c>
       <c r="J10">
-        <v>0.3753753970897798</v>
+        <v>9.381856664395554E-06</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>155.715100751252</v>
+        <v>174.5669863333333</v>
       </c>
       <c r="N10">
-        <v>155.715100751252</v>
+        <v>523.700959</v>
       </c>
       <c r="O10">
-        <v>0.4762165032236331</v>
+        <v>0.5200129796273021</v>
       </c>
       <c r="P10">
-        <v>0.4762165032236331</v>
+        <v>0.5203696953122771</v>
       </c>
       <c r="Q10">
-        <v>31411.71035444844</v>
+        <v>0.9405087333685556</v>
       </c>
       <c r="R10">
-        <v>31411.71035444844</v>
+        <v>8.464578600317001</v>
       </c>
       <c r="S10">
-        <v>0.1787599589982777</v>
+        <v>4.87555999667621E-06</v>
       </c>
       <c r="T10">
-        <v>0.1787599589982777</v>
+        <v>4.882033893914971E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>201.725524389746</v>
+        <v>0.005387666666666666</v>
       </c>
       <c r="H11">
-        <v>201.725524389746</v>
+        <v>0.016163</v>
       </c>
       <c r="I11">
-        <v>0.3753753970897798</v>
+        <v>9.37584288794208E-06</v>
       </c>
       <c r="J11">
-        <v>0.3753753970897798</v>
+        <v>9.381856664395554E-06</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.331734542621054</v>
+        <v>159.4829636666667</v>
       </c>
       <c r="N11">
-        <v>0.331734542621054</v>
+        <v>478.448891</v>
       </c>
       <c r="O11">
-        <v>0.001014528861512614</v>
+        <v>0.4750795833625507</v>
       </c>
       <c r="P11">
-        <v>0.001014528861512614</v>
+        <v>0.4754054758799227</v>
       </c>
       <c r="Q11">
-        <v>66.91932456842467</v>
+        <v>0.8592410472481111</v>
       </c>
       <c r="R11">
-        <v>66.91932456842467</v>
+        <v>7.733169425233</v>
       </c>
       <c r="S11">
-        <v>0.0003808291742493396</v>
+        <v>4.454271532876258E-06</v>
       </c>
       <c r="T11">
-        <v>0.0003808291742493396</v>
+        <v>4.460186032174193E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>334.627309836981</v>
+        <v>0.005387666666666666</v>
       </c>
       <c r="H12">
-        <v>334.627309836981</v>
+        <v>0.016163</v>
       </c>
       <c r="I12">
-        <v>0.6226820313747392</v>
+        <v>9.37584288794208E-06</v>
       </c>
       <c r="J12">
-        <v>0.6226820313747392</v>
+        <v>9.381856664395554E-06</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.222083570725076</v>
+        <v>0.8705036666666667</v>
       </c>
       <c r="N12">
-        <v>0.222083570725076</v>
+        <v>2.611511</v>
       </c>
       <c r="O12">
-        <v>0.000679188215939704</v>
+        <v>0.002593120354472131</v>
       </c>
       <c r="P12">
-        <v>0.000679188215939704</v>
+        <v>0.002594899169116587</v>
       </c>
       <c r="Q12">
-        <v>74.31522783072309</v>
+        <v>0.004689983588111111</v>
       </c>
       <c r="R12">
-        <v>74.31522783072309</v>
+        <v>0.04220985229300001</v>
       </c>
       <c r="S12">
-        <v>0.0004229182979871199</v>
+        <v>2.431268903305538E-08</v>
       </c>
       <c r="T12">
-        <v>0.0004229182979871199</v>
+        <v>2.434497206321094E-08</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>334.627309836981</v>
+        <v>0.005387666666666666</v>
       </c>
       <c r="H13">
-        <v>334.627309836981</v>
+        <v>0.016163</v>
       </c>
       <c r="I13">
-        <v>0.6226820313747392</v>
+        <v>9.37584288794208E-06</v>
       </c>
       <c r="J13">
-        <v>0.6226820313747392</v>
+        <v>9.381856664395554E-06</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.08061147012914049</v>
+        <v>0.3341845</v>
       </c>
       <c r="N13">
-        <v>0.08061147012914049</v>
+        <v>0.668369</v>
       </c>
       <c r="O13">
-        <v>0.000246530440781974</v>
+        <v>0.0009954933704270348</v>
       </c>
       <c r="P13">
-        <v>0.000246530440781974</v>
+        <v>0.0006641175023820632</v>
       </c>
       <c r="Q13">
-        <v>26.97479939131843</v>
+        <v>0.001800474691166666</v>
       </c>
       <c r="R13">
-        <v>26.97479939131843</v>
+        <v>0.010802848147</v>
       </c>
       <c r="S13">
-        <v>0.0001535100756618294</v>
+        <v>9.333589437111805E-09</v>
       </c>
       <c r="T13">
-        <v>0.0001535100756618294</v>
+        <v>6.230655215664891E-09</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>334.627309836981</v>
+        <v>236.563113</v>
       </c>
       <c r="H14">
-        <v>334.627309836981</v>
+        <v>709.689339</v>
       </c>
       <c r="I14">
-        <v>0.6226820313747392</v>
+        <v>0.4116770241732021</v>
       </c>
       <c r="J14">
-        <v>0.6226820313747392</v>
+        <v>0.4119410786826471</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>170.634309362503</v>
+        <v>0.3561815</v>
       </c>
       <c r="N14">
-        <v>170.634309362503</v>
+        <v>0.7123630000000001</v>
       </c>
       <c r="O14">
-        <v>0.5218432492581325</v>
+        <v>0.001061019652074698</v>
       </c>
       <c r="P14">
-        <v>0.5218432492581325</v>
+        <v>0.0007078316563895001</v>
       </c>
       <c r="Q14">
-        <v>57098.89990786555</v>
+        <v>84.25940443300952</v>
       </c>
       <c r="R14">
-        <v>57098.89990786555</v>
+        <v>505.556426598057</v>
       </c>
       <c r="S14">
-        <v>0.3249424145072483</v>
+        <v>0.000436797412955398</v>
       </c>
       <c r="T14">
-        <v>0.3249424145072483</v>
+        <v>0.0002915849360588155</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>334.627309836981</v>
+        <v>236.563113</v>
       </c>
       <c r="H15">
-        <v>334.627309836981</v>
+        <v>709.689339</v>
       </c>
       <c r="I15">
-        <v>0.6226820313747392</v>
+        <v>0.4116770241732021</v>
       </c>
       <c r="J15">
-        <v>0.6226820313747392</v>
+        <v>0.4119410786826471</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>155.715100751252</v>
+        <v>0.086544</v>
       </c>
       <c r="N15">
-        <v>155.715100751252</v>
+        <v>0.259632</v>
       </c>
       <c r="O15">
-        <v>0.4762165032236331</v>
+        <v>0.0002578036331734036</v>
       </c>
       <c r="P15">
-        <v>0.4762165032236331</v>
+        <v>0.0002579804799122339</v>
       </c>
       <c r="Q15">
-        <v>52106.52526538592</v>
+        <v>20.473118051472</v>
       </c>
       <c r="R15">
-        <v>52106.52526538592</v>
+        <v>184.258062463248</v>
       </c>
       <c r="S15">
-        <v>0.2965314596014669</v>
+        <v>0.0001061318325258666</v>
       </c>
       <c r="T15">
-        <v>0.2965314596014669</v>
+        <v>0.0001062727571741126</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,247 +1396,247 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>334.627309836981</v>
+        <v>236.563113</v>
       </c>
       <c r="H16">
-        <v>334.627309836981</v>
+        <v>709.689339</v>
       </c>
       <c r="I16">
-        <v>0.6226820313747392</v>
+        <v>0.4116770241732021</v>
       </c>
       <c r="J16">
-        <v>0.6226820313747392</v>
+        <v>0.4119410786826471</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.331734542621054</v>
+        <v>174.5669863333333</v>
       </c>
       <c r="N16">
-        <v>0.331734542621054</v>
+        <v>523.700959</v>
       </c>
       <c r="O16">
-        <v>0.001014528861512614</v>
+        <v>0.5200129796273021</v>
       </c>
       <c r="P16">
-        <v>0.001014528861512614</v>
+        <v>0.5203696953122771</v>
       </c>
       <c r="Q16">
-        <v>111.0074375772846</v>
+        <v>41296.10971404179</v>
       </c>
       <c r="R16">
-        <v>111.0074375772846</v>
+        <v>371664.9874263761</v>
       </c>
       <c r="S16">
-        <v>0.0006317288923749757</v>
+        <v>0.2140773959844077</v>
       </c>
       <c r="T16">
-        <v>0.0006317288923749757</v>
+        <v>0.2143616536006998</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.533160921417418</v>
+        <v>236.563113</v>
       </c>
       <c r="H17">
-        <v>0.533160921417418</v>
+        <v>709.689339</v>
       </c>
       <c r="I17">
-        <v>0.000992117845251661</v>
+        <v>0.4116770241732021</v>
       </c>
       <c r="J17">
-        <v>0.000992117845251661</v>
+        <v>0.4119410786826471</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.222083570725076</v>
+        <v>159.4829636666667</v>
       </c>
       <c r="N17">
-        <v>0.222083570725076</v>
+        <v>478.448891</v>
       </c>
       <c r="O17">
-        <v>0.000679188215939704</v>
+        <v>0.4750795833625507</v>
       </c>
       <c r="P17">
-        <v>0.000679188215939704</v>
+        <v>0.4754054758799227</v>
       </c>
       <c r="Q17">
-        <v>0.1184062811994518</v>
+        <v>37727.78635545257</v>
       </c>
       <c r="R17">
-        <v>0.1184062811994518</v>
+        <v>339550.077199073</v>
       </c>
       <c r="S17">
-        <v>6.73834749318419E-07</v>
+        <v>0.1955793491241396</v>
       </c>
       <c r="T17">
-        <v>6.73834749318419E-07</v>
+        <v>0.1958390445456125</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.533160921417418</v>
+        <v>236.563113</v>
       </c>
       <c r="H18">
-        <v>0.533160921417418</v>
+        <v>709.689339</v>
       </c>
       <c r="I18">
-        <v>0.000992117845251661</v>
+        <v>0.4116770241732021</v>
       </c>
       <c r="J18">
-        <v>0.000992117845251661</v>
+        <v>0.4119410786826471</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.08061147012914049</v>
+        <v>0.8705036666666667</v>
       </c>
       <c r="N18">
-        <v>0.08061147012914049</v>
+        <v>2.611511</v>
       </c>
       <c r="O18">
-        <v>0.000246530440781974</v>
+        <v>0.002593120354472131</v>
       </c>
       <c r="P18">
-        <v>0.000246530440781974</v>
+        <v>0.002594899169116587</v>
       </c>
       <c r="Q18">
-        <v>0.04297888569086521</v>
+        <v>205.929057264581</v>
       </c>
       <c r="R18">
-        <v>0.04297888569086521</v>
+        <v>1853.361515381229</v>
       </c>
       <c r="S18">
-        <v>2.445872496975543E-07</v>
+        <v>0.001067528070852046</v>
       </c>
       <c r="T18">
-        <v>2.445872496975543E-07</v>
+        <v>0.001068945562798592</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.533160921417418</v>
+        <v>236.563113</v>
       </c>
       <c r="H19">
-        <v>0.533160921417418</v>
+        <v>709.689339</v>
       </c>
       <c r="I19">
-        <v>0.000992117845251661</v>
+        <v>0.4116770241732021</v>
       </c>
       <c r="J19">
-        <v>0.000992117845251661</v>
+        <v>0.4119410786826471</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>170.634309362503</v>
+        <v>0.3341845</v>
       </c>
       <c r="N19">
-        <v>170.634309362503</v>
+        <v>0.668369</v>
       </c>
       <c r="O19">
-        <v>0.5218432492581325</v>
+        <v>0.0009954933704270348</v>
       </c>
       <c r="P19">
-        <v>0.5218432492581325</v>
+        <v>0.0006641175023820632</v>
       </c>
       <c r="Q19">
-        <v>90.97554560513684</v>
+        <v>79.0557256363485</v>
       </c>
       <c r="R19">
-        <v>90.97554560513684</v>
+        <v>474.334353818091</v>
       </c>
       <c r="S19">
-        <v>0.0005177300000131039</v>
+        <v>0.0004098217483215529</v>
       </c>
       <c r="T19">
-        <v>0.0005177300000131039</v>
+        <v>0.0002735772803032926</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.533160921417418</v>
+        <v>335.3650816666666</v>
       </c>
       <c r="H20">
-        <v>0.533160921417418</v>
+        <v>1006.095245</v>
       </c>
       <c r="I20">
-        <v>0.000992117845251661</v>
+        <v>0.583616342722613</v>
       </c>
       <c r="J20">
-        <v>0.000992117845251661</v>
+        <v>0.5839906811433476</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>155.715100751252</v>
+        <v>0.3561815</v>
       </c>
       <c r="N20">
-        <v>155.715100751252</v>
+        <v>0.7123630000000001</v>
       </c>
       <c r="O20">
-        <v>0.4762165032236331</v>
+        <v>0.001061019652074698</v>
       </c>
       <c r="P20">
-        <v>0.4762165032236331</v>
+        <v>0.0007078316563895001</v>
       </c>
       <c r="Q20">
-        <v>83.0212065951436</v>
+        <v>119.4508378356558</v>
       </c>
       <c r="R20">
-        <v>83.0212065951436</v>
+        <v>716.705027013935</v>
       </c>
       <c r="S20">
-        <v>0.0004724628910515116</v>
+        <v>0.0006192284089006546</v>
       </c>
       <c r="T20">
-        <v>0.0004724628910515116</v>
+        <v>0.0004133670911497281</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,681 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>335.3650816666666</v>
+      </c>
+      <c r="H21">
+        <v>1006.095245</v>
+      </c>
+      <c r="I21">
+        <v>0.583616342722613</v>
+      </c>
+      <c r="J21">
+        <v>0.5839906811433476</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.086544</v>
+      </c>
+      <c r="N21">
+        <v>0.259632</v>
+      </c>
+      <c r="O21">
+        <v>0.0002578036331734036</v>
+      </c>
+      <c r="P21">
+        <v>0.0002579804799122339</v>
+      </c>
+      <c r="Q21">
+        <v>29.02383562776</v>
+      </c>
+      <c r="R21">
+        <v>261.21452064984</v>
+      </c>
+      <c r="S21">
+        <v>0.0001504584135332639</v>
+      </c>
+      <c r="T21">
+        <v>0.0001506581961856332</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>335.3650816666666</v>
+      </c>
+      <c r="H22">
+        <v>1006.095245</v>
+      </c>
+      <c r="I22">
+        <v>0.583616342722613</v>
+      </c>
+      <c r="J22">
+        <v>0.5839906811433476</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>174.5669863333333</v>
+      </c>
+      <c r="N22">
+        <v>523.700959</v>
+      </c>
+      <c r="O22">
+        <v>0.5200129796273021</v>
+      </c>
+      <c r="P22">
+        <v>0.5203696953122771</v>
+      </c>
+      <c r="Q22">
+        <v>58543.67162798221</v>
+      </c>
+      <c r="R22">
+        <v>526893.04465184</v>
+      </c>
+      <c r="S22">
+        <v>0.3034880733383747</v>
+      </c>
+      <c r="T22">
+        <v>0.3038910528117729</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>335.3650816666666</v>
+      </c>
+      <c r="H23">
+        <v>1006.095245</v>
+      </c>
+      <c r="I23">
+        <v>0.583616342722613</v>
+      </c>
+      <c r="J23">
+        <v>0.5839906811433476</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>159.4829636666667</v>
+      </c>
+      <c r="N23">
+        <v>478.448891</v>
+      </c>
+      <c r="O23">
+        <v>0.4750795833625507</v>
+      </c>
+      <c r="P23">
+        <v>0.4754054758799227</v>
+      </c>
+      <c r="Q23">
+        <v>53485.0171345137</v>
+      </c>
+      <c r="R23">
+        <v>481365.1542106233</v>
+      </c>
+      <c r="S23">
+        <v>0.2772642089442346</v>
+      </c>
+      <c r="T23">
+        <v>0.2776323676783933</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>335.3650816666666</v>
+      </c>
+      <c r="H24">
+        <v>1006.095245</v>
+      </c>
+      <c r="I24">
+        <v>0.583616342722613</v>
+      </c>
+      <c r="J24">
+        <v>0.5839906811433476</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.8705036666666667</v>
+      </c>
+      <c r="N24">
+        <v>2.611511</v>
+      </c>
+      <c r="O24">
+        <v>0.002593120354472131</v>
+      </c>
+      <c r="P24">
+        <v>0.002594899169116587</v>
+      </c>
+      <c r="Q24">
+        <v>291.9365332627994</v>
+      </c>
+      <c r="R24">
+        <v>2627.428799365195</v>
+      </c>
+      <c r="S24">
+        <v>0.001513387417516591</v>
+      </c>
+      <c r="T24">
+        <v>0.001515396933270703</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>27</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.533160921417418</v>
-      </c>
-      <c r="H21">
-        <v>0.533160921417418</v>
-      </c>
-      <c r="I21">
-        <v>0.000992117845251661</v>
-      </c>
-      <c r="J21">
-        <v>0.000992117845251661</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.331734542621054</v>
-      </c>
-      <c r="N21">
-        <v>0.331734542621054</v>
-      </c>
-      <c r="O21">
-        <v>0.001014528861512614</v>
-      </c>
-      <c r="P21">
-        <v>0.001014528861512614</v>
-      </c>
-      <c r="Q21">
-        <v>0.1768678944098269</v>
-      </c>
-      <c r="R21">
-        <v>0.1768678944098269</v>
-      </c>
-      <c r="S21">
-        <v>1.006532188029515E-06</v>
-      </c>
-      <c r="T21">
-        <v>1.006532188029515E-06</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>335.3650816666666</v>
+      </c>
+      <c r="H25">
+        <v>1006.095245</v>
+      </c>
+      <c r="I25">
+        <v>0.583616342722613</v>
+      </c>
+      <c r="J25">
+        <v>0.5839906811433476</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.3341845</v>
+      </c>
+      <c r="N25">
+        <v>0.668369</v>
+      </c>
+      <c r="O25">
+        <v>0.0009954933704270348</v>
+      </c>
+      <c r="P25">
+        <v>0.0006641175023820632</v>
+      </c>
+      <c r="Q25">
+        <v>112.0738121342342</v>
+      </c>
+      <c r="R25">
+        <v>672.4428728054049</v>
+      </c>
+      <c r="S25">
+        <v>0.0005809862000532334</v>
+      </c>
+      <c r="T25">
+        <v>0.0003878384325753199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.594178</v>
+      </c>
+      <c r="H26">
+        <v>4.782534</v>
+      </c>
+      <c r="I26">
+        <v>0.002774255236666534</v>
+      </c>
+      <c r="J26">
+        <v>0.002776034676767823</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.3561815</v>
+      </c>
+      <c r="N26">
+        <v>0.7123630000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.001061019652074698</v>
+      </c>
+      <c r="P26">
+        <v>0.0007078316563895001</v>
+      </c>
+      <c r="Q26">
+        <v>0.5678167113070001</v>
+      </c>
+      <c r="R26">
+        <v>3.406900267842</v>
+      </c>
+      <c r="S26">
+        <v>2.943539325974335E-06</v>
+      </c>
+      <c r="T26">
+        <v>1.964965223451259E-06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.594178</v>
+      </c>
+      <c r="H27">
+        <v>4.782534</v>
+      </c>
+      <c r="I27">
+        <v>0.002774255236666534</v>
+      </c>
+      <c r="J27">
+        <v>0.002776034676767823</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.086544</v>
+      </c>
+      <c r="N27">
+        <v>0.259632</v>
+      </c>
+      <c r="O27">
+        <v>0.0002578036331734036</v>
+      </c>
+      <c r="P27">
+        <v>0.0002579804799122339</v>
+      </c>
+      <c r="Q27">
+        <v>0.137966540832</v>
+      </c>
+      <c r="R27">
+        <v>1.241698867488</v>
+      </c>
+      <c r="S27">
+        <v>7.152130793629731E-07</v>
+      </c>
+      <c r="T27">
+        <v>7.161627581655661E-07</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.594178</v>
+      </c>
+      <c r="H28">
+        <v>4.782534</v>
+      </c>
+      <c r="I28">
+        <v>0.002774255236666534</v>
+      </c>
+      <c r="J28">
+        <v>0.002776034676767823</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>174.5669863333333</v>
+      </c>
+      <c r="N28">
+        <v>523.700959</v>
+      </c>
+      <c r="O28">
+        <v>0.5200129796273021</v>
+      </c>
+      <c r="P28">
+        <v>0.5203696953122771</v>
+      </c>
+      <c r="Q28">
+        <v>278.2908491389007</v>
+      </c>
+      <c r="R28">
+        <v>2504.617642250106</v>
+      </c>
+      <c r="S28">
+        <v>0.00144264873186561</v>
+      </c>
+      <c r="T28">
+        <v>0.001444564318925988</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.594178</v>
+      </c>
+      <c r="H29">
+        <v>4.782534</v>
+      </c>
+      <c r="I29">
+        <v>0.002774255236666534</v>
+      </c>
+      <c r="J29">
+        <v>0.002776034676767823</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>159.4829636666667</v>
+      </c>
+      <c r="N29">
+        <v>478.448891</v>
+      </c>
+      <c r="O29">
+        <v>0.4750795833625507</v>
+      </c>
+      <c r="P29">
+        <v>0.4754054758799227</v>
+      </c>
+      <c r="Q29">
+        <v>254.2442320521994</v>
+      </c>
+      <c r="R29">
+        <v>2288.198088469794</v>
+      </c>
+      <c r="S29">
+        <v>0.001317992021976911</v>
+      </c>
+      <c r="T29">
+        <v>0.001319742086567974</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.594178</v>
+      </c>
+      <c r="H30">
+        <v>4.782534</v>
+      </c>
+      <c r="I30">
+        <v>0.002774255236666534</v>
+      </c>
+      <c r="J30">
+        <v>0.002776034676767823</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.8705036666666667</v>
+      </c>
+      <c r="N30">
+        <v>2.611511</v>
+      </c>
+      <c r="O30">
+        <v>0.002593120354472131</v>
+      </c>
+      <c r="P30">
+        <v>0.002594899169116587</v>
+      </c>
+      <c r="Q30">
+        <v>1.387737794319333</v>
+      </c>
+      <c r="R30">
+        <v>12.489640148874</v>
+      </c>
+      <c r="S30">
+        <v>7.193977722700889E-06</v>
+      </c>
+      <c r="T30">
+        <v>7.203530076183659E-06</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.594178</v>
+      </c>
+      <c r="H31">
+        <v>4.782534</v>
+      </c>
+      <c r="I31">
+        <v>0.002774255236666534</v>
+      </c>
+      <c r="J31">
+        <v>0.002776034676767823</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.3341845</v>
+      </c>
+      <c r="N31">
+        <v>0.668369</v>
+      </c>
+      <c r="O31">
+        <v>0.0009954933704270348</v>
+      </c>
+      <c r="P31">
+        <v>0.0006641175023820632</v>
+      </c>
+      <c r="Q31">
+        <v>0.5327495778410001</v>
+      </c>
+      <c r="R31">
+        <v>3.196497467046</v>
+      </c>
+      <c r="S31">
+        <v>2.761752695974019E-06</v>
+      </c>
+      <c r="T31">
+        <v>1.843613216061045E-06</v>
       </c>
     </row>
   </sheetData>
